--- a/Test-Case _Banking_Software..xlsx
+++ b/Test-Case _Banking_Software..xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="7035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="6" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Fund Transfer" sheetId="8" r:id="rId3"/>
     <sheet name="Withdraw" sheetId="9" r:id="rId4"/>
     <sheet name="New Customer" sheetId="5" r:id="rId5"/>
+    <sheet name="MiniStatement" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="231">
   <si>
     <t>Test Case ID/Name</t>
   </si>
@@ -1878,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +3218,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I20"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4724,4 +4725,139 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44185</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>44177</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>44187</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-Case _Banking_Software..xlsx
+++ b/Test-Case _Banking_Software..xlsx
@@ -1371,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1512,6 +1512,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4732,12 +4733,24 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="48"/>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4753,7 +4766,8 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4783,8 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4785,7 +4800,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
       <c r="B4" s="7">
         <v>44177</v>
       </c>
@@ -4859,5 +4875,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>